--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/管理费用.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/管理费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>118.14181</v>
-      </c>
-      <c r="C2" t="n">
-        <v>373.88068</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.15977</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00529</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8.989420000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>270.31223</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.37415</v>
-      </c>
-      <c r="I2" t="n">
-        <v>115.82585</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.56816</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32.37061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3502.57605</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.77868</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.132339999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>173.92855</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99.94772</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>26.81396</v>
-      </c>
-      <c r="R2" t="n">
-        <v>26.6252</v>
-      </c>
-      <c r="S2" t="n">
-        <v>10.04253</v>
-      </c>
-      <c r="T2" t="n">
-        <v>19.16603</v>
-      </c>
-      <c r="U2" t="n">
-        <v>25.54944</v>
-      </c>
-      <c r="V2" t="n">
-        <v>68.13885000000001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>15.34683</v>
-      </c>
-      <c r="X2" t="n">
-        <v>177.06881</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>143.18837</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>233.61022</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>168.54492</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>13.18707</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>149.32802</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>158.41973</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>145.13812</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>30.94366</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>45.58935</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>41.6137</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>127.58338</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>16.12312</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>43.26266</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>59.22111</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>89.0448</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>299.56382</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8.01764</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>119.90072</v>
-      </c>
-      <c r="C3" t="n">
-        <v>438.91759</v>
-      </c>
-      <c r="D3" t="n">
-        <v>46.3248</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.42907</v>
-      </c>
-      <c r="G3" t="n">
-        <v>301.41544</v>
-      </c>
-      <c r="H3" t="n">
-        <v>32.96088</v>
-      </c>
-      <c r="I3" t="n">
-        <v>139.38874</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34.8188</v>
-      </c>
-      <c r="K3" t="n">
-        <v>38.48604</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3947.98613</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.36098</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11.3767</v>
-      </c>
-      <c r="O3" t="n">
-        <v>188.29755</v>
-      </c>
-      <c r="P3" t="n">
-        <v>94.75357</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>26.48655</v>
-      </c>
-      <c r="R3" t="n">
-        <v>34.30641</v>
-      </c>
-      <c r="S3" t="n">
-        <v>9.79448</v>
-      </c>
-      <c r="T3" t="n">
-        <v>17.59701</v>
-      </c>
-      <c r="U3" t="n">
-        <v>31.74511</v>
-      </c>
-      <c r="V3" t="n">
-        <v>96.35911</v>
-      </c>
-      <c r="W3" t="n">
-        <v>16.56613</v>
-      </c>
-      <c r="X3" t="n">
-        <v>211.90023</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>182.74973</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>324.51973</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>195.64231</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>17.25137</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>156.50846</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>170.51591</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>136.28959</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>33.34946</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>53.44745</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>47.65928</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>139.86934</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>18.75238</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>47.5611</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>62.12457</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>93.5917</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>311.5583</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.13156</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>132.26748</v>
-      </c>
-      <c r="C4" t="n">
-        <v>517.32551</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.36272</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00165</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11.4486</v>
-      </c>
-      <c r="G4" t="n">
-        <v>312.2056</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33.90756</v>
-      </c>
-      <c r="I4" t="n">
-        <v>158.70226</v>
-      </c>
-      <c r="J4" t="n">
-        <v>37.38744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43.31287</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4374.63027</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.31853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13.34954</v>
-      </c>
-      <c r="O4" t="n">
-        <v>211.26382</v>
-      </c>
-      <c r="P4" t="n">
-        <v>87.9577</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>28.28052</v>
-      </c>
-      <c r="R4" t="n">
-        <v>35.17898</v>
-      </c>
-      <c r="S4" t="n">
-        <v>11.05117</v>
-      </c>
-      <c r="T4" t="n">
-        <v>18.10261</v>
-      </c>
-      <c r="U4" t="n">
-        <v>37.63326</v>
-      </c>
-      <c r="V4" t="n">
-        <v>122.80393</v>
-      </c>
-      <c r="W4" t="n">
-        <v>17.85211</v>
-      </c>
-      <c r="X4" t="n">
-        <v>269.26702</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>224.69264</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>393.00511</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>199.43941</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19.07086</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>141.68962</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>171.39124</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>139.25942</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>36.51871</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>60.10356</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>52.68275</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>142.2339</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19.03712</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>59.3225</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>65.8746</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>99.35496999999999</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>339.18254</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12.40891</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
